--- a/data-raw/metadata/survey_characteristics_metadata.xlsx
+++ b/data-raw/metadata/survey_characteristics_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/edi-feather-snorkel/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3D170A-E60D-E041-BE82-D26427BA644A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FC5495-0FFE-BB4D-8995-8BC249AFDD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63260" yWindow="720" windowWidth="32260" windowHeight="24540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="500" windowWidth="28800" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -262,12 +262,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -591,9 +585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z985"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1108,6 +1102,12 @@
       <c r="H12" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="L12">
+        <v>0.3</v>
+      </c>
+      <c r="M12" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>

--- a/data-raw/metadata/survey_characteristics_metadata.xlsx
+++ b/data-raw/metadata/survey_characteristics_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/edi-feather-snorkel/data-raw/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/VA/edi-feather-snorkel/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FC5495-0FFE-BB4D-8995-8BC249AFDD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2957F9-DDFC-F341-91EE-B6E887456CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="500" windowWidth="28800" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -23,51 +23,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={91F909D9-98F8-4342-A480-CA65C787107E}</author>
-    <author>tc={2E94BA6E-FDC6-284D-920D-9993ED8F58E2}</author>
-    <author>tc={C8E8BFDB-C0CE-864D-B16C-AF445F0D1248}</author>
-    <author>tc={BDC08212-4E76-7E43-9035-ADEE09AD9F6A}</author>
-  </authors>
-  <commentList>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{91F909D9-98F8-4342-A480-CA65C787107E}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    What does comp mean?</t>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="1" shapeId="0" xr:uid="{2E94BA6E-FDC6-284D-920D-9993ED8F58E2}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    How was this measured?</t>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="2" shapeId="0" xr:uid="{C8E8BFDB-C0CE-864D-B16C-AF445F0D1248}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    How was this measured?</t>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="3" shapeId="0" xr:uid="{BDC08212-4E76-7E43-9035-ADEE09AD9F6A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    I think we can improve the description here.</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -184,9 +139,6 @@
     <t>NTU</t>
   </si>
   <si>
-    <t>Units surveyed on a given snorkel suvey</t>
-  </si>
-  <si>
     <t>Weather conditions when data was collected. Weather conditions include: clear, sunny, clear and windy, cloudy, partly cloudy, precipitation, hazy, windy, clear and hot, overcast</t>
   </si>
   <si>
@@ -197,9 +149,6 @@
   </si>
   <si>
     <t>Flow in cubic feet per second (cfs)</t>
-  </si>
-  <si>
-    <t>Turbidity measured at survey location</t>
   </si>
   <si>
     <t>Section name describing location where snorkel data was collected.</t>
@@ -214,12 +163,6 @@
     <t>Describes whether survey was conducted in standard protocol locations or if due to environmental conditions was conducted in another location. Levels = c("permanent", "random")</t>
   </si>
   <si>
-    <t>Describes if survey was conducted for the entire section or for a specific unit. Levels = c("comp", "unit")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature of water </t>
-  </si>
-  <si>
     <t>visibility</t>
   </si>
   <si>
@@ -227,6 +170,18 @@
   </si>
   <si>
     <t>parr marks</t>
+  </si>
+  <si>
+    <t>Units in the section that were surveyed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describes if survey was conducted for the entire section or for a specific unit. Levels = c("comp", "unit") where 'comp' refers to the comprehensive snorkel surveys version section or unit based surveys. </t>
+  </si>
+  <si>
+    <t>Turbidity measured at survey location measured in NTU through 2013. Values in the turbidity field after 2013 are measures of visibility using "fish on a stick" method. Values of 0 after 2013 in the turbidity field indicate good visibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature of water measured using a handheld thermometer </t>
   </si>
 </sst>
 </file>
@@ -339,11 +294,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,18 +537,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="42" style="19" customWidth="1"/>
+    <col min="2" max="2" width="73.5" style="18" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
@@ -665,8 +620,8 @@
       <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
+      <c r="B2" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -703,8 +658,8 @@
       <c r="A3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
+      <c r="B3" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>31</v>
@@ -747,8 +702,8 @@
       <c r="A4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
+      <c r="B4" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -786,7 +741,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -821,10 +776,10 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>47</v>
+      <c r="B6" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -859,10 +814,10 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -899,8 +854,8 @@
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>41</v>
+      <c r="B8" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -947,8 +902,8 @@
       <c r="A9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
+      <c r="B9" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -985,8 +940,8 @@
       <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
+      <c r="B10" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
@@ -1033,8 +988,8 @@
       <c r="A11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>48</v>
+      <c r="B11" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -1079,10 +1034,10 @@
     </row>
     <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>50</v>
+      <c r="B12" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>28</v>
@@ -1097,7 +1052,7 @@
         <v>15</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>17</v>
@@ -28329,7 +28284,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data-raw/metadata/survey_characteristics_metadata.xlsx
+++ b/data-raw/metadata/survey_characteristics_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/VA/edi-feather-snorkel/data-raw/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/edi-feather-snorkel/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2957F9-DDFC-F341-91EE-B6E887456CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A8B120-B965-3C42-A1EE-3A3B69D91666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -183,6 +183,12 @@
   <si>
     <t xml:space="preserve">Temperature of water measured using a handheld thermometer </t>
   </si>
+  <si>
+    <t>section_number</t>
+  </si>
+  <si>
+    <t>Section number describing the location where snorkel data was collected</t>
+  </si>
 </sst>
 </file>
 
@@ -318,9 +324,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Ashley Vizek" id="{1F0FDE1D-14E2-9A44-A077-CFD4C7CFBF54}" userId="d4747e6e06773ba2" providerId="Windows Live"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,30 +523,13 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B6" dT="2024-06-19T04:40:56.64" personId="{1F0FDE1D-14E2-9A44-A077-CFD4C7CFBF54}" id="{91F909D9-98F8-4342-A480-CA65C787107E}">
-    <text>What does comp mean?</text>
-  </threadedComment>
-  <threadedComment ref="B10" dT="2024-06-19T04:41:03.99" personId="{1F0FDE1D-14E2-9A44-A077-CFD4C7CFBF54}" id="{2E94BA6E-FDC6-284D-920D-9993ED8F58E2}">
-    <text>How was this measured?</text>
-  </threadedComment>
-  <threadedComment ref="B11" dT="2024-06-19T04:41:11.60" personId="{1F0FDE1D-14E2-9A44-A077-CFD4C7CFBF54}" id="{C8E8BFDB-C0CE-864D-B16C-AF445F0D1248}">
-    <text>How was this measured?</text>
-  </threadedComment>
-  <threadedComment ref="B12" dT="2024-06-19T04:41:23.37" personId="{1F0FDE1D-14E2-9A44-A077-CFD4C7CFBF54}" id="{BDC08212-4E76-7E43-9035-ADEE09AD9F6A}">
-    <text>I think we can improve the description here.</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z985"/>
+  <dimension ref="A1:Z986"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B12"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -738,10 +725,10 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -776,10 +763,10 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>49</v>
+      <c r="B6" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -814,10 +801,10 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>44</v>
+      <c r="B7" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -852,38 +839,28 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>9564</v>
-      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="3"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -900,28 +877,38 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="F9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>9564</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -938,38 +925,28 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="2"/>
       <c r="J10" s="5"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="13">
-        <v>0</v>
-      </c>
-      <c r="M10" s="13">
-        <v>4</v>
-      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="3"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -986,10 +963,10 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>51</v>
+      <c r="B11" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -1000,11 +977,11 @@
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>28</v>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>17</v>
@@ -1012,11 +989,11 @@
       <c r="I11" s="2"/>
       <c r="J11" s="5"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="14">
+      <c r="L11" s="13">
         <v>0</v>
       </c>
-      <c r="M11" s="3">
-        <v>21.67</v>
+      <c r="M11" s="13">
+        <v>4</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1032,15 +1009,15 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>33</v>
@@ -1049,51 +1026,71 @@
         <v>16</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L12">
+      <c r="I12" s="2"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>21.67</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13">
         <v>0.3</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M13" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-    </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
@@ -1125,29 +1122,39 @@
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="2"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1166,16 +1173,6 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="3"/>
       <c r="K18" s="2"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1306,6 +1303,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
@@ -1333,7 +1331,6 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -1361,6 +1358,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -1388,7 +1386,6 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -2340,7 +2337,7 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
+      <c r="A60" s="4"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="2"/>
@@ -28267,18 +28264,46 @@
       <c r="Y985" s="1"/>
       <c r="Z985" s="1"/>
     </row>
+    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A986" s="1"/>
+      <c r="B986" s="1"/>
+      <c r="C986" s="1"/>
+      <c r="D986" s="2"/>
+      <c r="E986" s="1"/>
+      <c r="F986" s="3"/>
+      <c r="G986" s="3"/>
+      <c r="H986" s="3"/>
+      <c r="I986" s="2"/>
+      <c r="J986" s="3"/>
+      <c r="K986" s="2"/>
+      <c r="L986" s="3"/>
+      <c r="M986" s="3"/>
+      <c r="N986" s="1"/>
+      <c r="O986" s="1"/>
+      <c r="P986" s="1"/>
+      <c r="Q986" s="1"/>
+      <c r="R986" s="1"/>
+      <c r="S986" s="1"/>
+      <c r="T986" s="1"/>
+      <c r="U986" s="1"/>
+      <c r="V986" s="1"/>
+      <c r="W986" s="1"/>
+      <c r="X986" s="1"/>
+      <c r="Y986" s="1"/>
+      <c r="Z986" s="1"/>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C42:C985 C18:C30 C14:C16 C1:C12" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C43:C986 C19:C31 C15:C17 C1:C13" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E18:E985 E14:E16 E1:E12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E19:E986 E15:E17 E1:E13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F18:F985 F14:F16 F1:F12" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F19:F986 F15:F17 F1:F13" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H18:H985 H14:H16 H1:H11" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H19:H986 H15:H17 H1:H12" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data-raw/metadata/survey_characteristics_metadata.xlsx
+++ b/data-raw/metadata/survey_characteristics_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/edi-feather-snorkel/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A8B120-B965-3C42-A1EE-3A3B69D91666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E48A7A-6209-2C44-B853-142F47F30B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -122,12 +122,6 @@
   </si>
   <si>
     <t>dateTime</t>
-  </si>
-  <si>
-    <t>ordinal</t>
-  </si>
-  <si>
-    <t>snorkel_survey</t>
   </si>
   <si>
     <t>cubicFeetPerSecond</t>
@@ -321,10 +315,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -529,7 +519,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -608,14 +598,12 @@
         <v>21</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
@@ -646,14 +634,12 @@
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
         <v>31</v>
       </c>
@@ -662,7 +648,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="2"/>
       <c r="J3" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="15">
@@ -690,14 +676,12 @@
         <v>26</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
@@ -725,17 +709,15 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
@@ -766,14 +748,12 @@
         <v>27</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
@@ -801,17 +781,15 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
@@ -839,17 +817,15 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
@@ -880,14 +856,12 @@
         <v>23</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
@@ -895,7 +869,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>17</v>
@@ -928,14 +902,12 @@
         <v>30</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
@@ -966,14 +938,12 @@
         <v>24</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -981,7 +951,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>17</v>
@@ -1014,14 +984,12 @@
         <v>25</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1059,17 +1027,15 @@
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1077,7 +1043,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>17</v>

--- a/data-raw/metadata/survey_characteristics_metadata.xlsx
+++ b/data-raw/metadata/survey_characteristics_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/edi-feather-snorkel/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E48A7A-6209-2C44-B853-142F47F30B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E9066C-25C4-9D42-8238-8B4C4F71ED55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,7 +519,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data-raw/metadata/survey_characteristics_metadata.xlsx
+++ b/data-raw/metadata/survey_characteristics_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/VA/edi-feather-snorkel/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2957F9-DDFC-F341-91EE-B6E887456CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A9EA61-47BE-F74D-BD04-1D651A351D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29420" yWindow="500" windowWidth="26880" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -106,12 +106,6 @@
     <t xml:space="preserve">temperature          </t>
   </si>
   <si>
-    <t xml:space="preserve">section_name        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">units_covered        </t>
-  </si>
-  <si>
     <t>interval</t>
   </si>
   <si>
@@ -151,16 +145,10 @@
     <t>Flow in cubic feet per second (cfs)</t>
   </si>
   <si>
-    <t>Section name describing location where snorkel data was collected.</t>
-  </si>
-  <si>
     <t>survey_type</t>
   </si>
   <si>
     <t>section_type</t>
-  </si>
-  <si>
-    <t>Describes whether survey was conducted in standard protocol locations or if due to environmental conditions was conducted in another location. Levels = c("permanent", "random")</t>
   </si>
   <si>
     <t>visibility</t>
@@ -172,9 +160,6 @@
     <t>parr marks</t>
   </si>
   <si>
-    <t>Units in the section that were surveyed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Describes if survey was conducted for the entire section or for a specific unit. Levels = c("comp", "unit") where 'comp' refers to the comprehensive snorkel surveys version section or unit based surveys. </t>
   </si>
   <si>
@@ -182,6 +167,9 @@
   </si>
   <si>
     <t xml:space="preserve">Temperature of water measured using a handheld thermometer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describes whether survey was conducted in standard protocol locations or if due to environmental conditions was conducted in another location. Levels = c("permanent", "random", NA). All years prior to 2015 are marked as NA. </t>
   </si>
 </sst>
 </file>
@@ -538,11 +526,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z985"/>
+  <dimension ref="A1:Z983"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B12"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -621,13 +609,13 @@
         <v>21</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -659,23 +647,23 @@
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="2"/>
       <c r="J3" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="15">
@@ -700,16 +688,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>41</v>
+      <c r="B4" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -738,16 +726,16 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -776,28 +764,38 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>49</v>
+      <c r="B6" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>9564</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -814,16 +812,16 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
@@ -852,37 +850,37 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11">
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="13">
         <v>0</v>
       </c>
-      <c r="M8" s="3">
-        <v>9564</v>
+      <c r="M8" s="13">
+        <v>4</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -900,28 +898,38 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>37</v>
+      <c r="B9" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="F9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="3"/>
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>21.67</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -936,188 +944,138 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>50</v>
+      <c r="B10" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="13">
-        <v>0</v>
-      </c>
-      <c r="M10" s="13">
-        <v>4</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="14">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>21.67</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12">
+      <c r="L10">
         <v>0.3</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M10" s="3">
         <v>9</v>
       </c>
     </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+    </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
@@ -1148,6 +1106,16 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="2"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1250,7 +1218,6 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
@@ -1361,6 +1328,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -2284,7 +2252,7 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
+      <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="2"/>
@@ -2312,7 +2280,7 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
+      <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
@@ -28211,74 +28179,18 @@
       <c r="Y983" s="1"/>
       <c r="Z983" s="1"/>
     </row>
-    <row r="984" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A984" s="1"/>
-      <c r="B984" s="1"/>
-      <c r="C984" s="1"/>
-      <c r="D984" s="2"/>
-      <c r="E984" s="1"/>
-      <c r="F984" s="3"/>
-      <c r="G984" s="3"/>
-      <c r="H984" s="3"/>
-      <c r="I984" s="2"/>
-      <c r="J984" s="3"/>
-      <c r="K984" s="2"/>
-      <c r="L984" s="3"/>
-      <c r="M984" s="3"/>
-      <c r="N984" s="1"/>
-      <c r="O984" s="1"/>
-      <c r="P984" s="1"/>
-      <c r="Q984" s="1"/>
-      <c r="R984" s="1"/>
-      <c r="S984" s="1"/>
-      <c r="T984" s="1"/>
-      <c r="U984" s="1"/>
-      <c r="V984" s="1"/>
-      <c r="W984" s="1"/>
-      <c r="X984" s="1"/>
-      <c r="Y984" s="1"/>
-      <c r="Z984" s="1"/>
-    </row>
-    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A985" s="1"/>
-      <c r="B985" s="1"/>
-      <c r="C985" s="1"/>
-      <c r="D985" s="2"/>
-      <c r="E985" s="1"/>
-      <c r="F985" s="3"/>
-      <c r="G985" s="3"/>
-      <c r="H985" s="3"/>
-      <c r="I985" s="2"/>
-      <c r="J985" s="3"/>
-      <c r="K985" s="2"/>
-      <c r="L985" s="3"/>
-      <c r="M985" s="3"/>
-      <c r="N985" s="1"/>
-      <c r="O985" s="1"/>
-      <c r="P985" s="1"/>
-      <c r="Q985" s="1"/>
-      <c r="R985" s="1"/>
-      <c r="S985" s="1"/>
-      <c r="T985" s="1"/>
-      <c r="U985" s="1"/>
-      <c r="V985" s="1"/>
-      <c r="W985" s="1"/>
-      <c r="X985" s="1"/>
-      <c r="Y985" s="1"/>
-      <c r="Z985" s="1"/>
-    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C42:C985 C18:C30 C14:C16 C1:C12" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C40:C983 C16:C28 C12:C14 C1:C10" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E18:E985 E14:E16 E1:E12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E16:E983 E12:E14 E1:E10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F18:F985 F14:F16 F1:F12" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F16:F983 F12:F14 F1:F10" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H18:H985 H14:H16 H1:H11" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H16:H983 H12:H14 H1:H9" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data-raw/metadata/survey_characteristics_metadata.xlsx
+++ b/data-raw/metadata/survey_characteristics_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/VA/edi-feather-snorkel/data-raw/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/edi-feather-snorkel/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A9EA61-47BE-F74D-BD04-1D651A351D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AD20EC-7C20-8C46-9298-A6CA9636E480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29420" yWindow="500" windowWidth="26880" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29420" yWindow="500" windowWidth="43260" windowHeight="24980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>dateTime</t>
-  </si>
-  <si>
-    <t>ordinal</t>
   </si>
   <si>
     <t>snorkel_survey</t>
@@ -306,9 +303,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Ashley Vizek" id="{1F0FDE1D-14E2-9A44-A077-CFD4C7CFBF54}" userId="d4747e6e06773ba2" providerId="Windows Live"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,30 +502,13 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B6" dT="2024-06-19T04:40:56.64" personId="{1F0FDE1D-14E2-9A44-A077-CFD4C7CFBF54}" id="{91F909D9-98F8-4342-A480-CA65C787107E}">
-    <text>What does comp mean?</text>
-  </threadedComment>
-  <threadedComment ref="B10" dT="2024-06-19T04:41:03.99" personId="{1F0FDE1D-14E2-9A44-A077-CFD4C7CFBF54}" id="{2E94BA6E-FDC6-284D-920D-9993ED8F58E2}">
-    <text>How was this measured?</text>
-  </threadedComment>
-  <threadedComment ref="B11" dT="2024-06-19T04:41:11.60" personId="{1F0FDE1D-14E2-9A44-A077-CFD4C7CFBF54}" id="{C8E8BFDB-C0CE-864D-B16C-AF445F0D1248}">
-    <text>How was this measured?</text>
-  </threadedComment>
-  <threadedComment ref="B12" dT="2024-06-19T04:41:23.37" personId="{1F0FDE1D-14E2-9A44-A077-CFD4C7CFBF54}" id="{BDC08212-4E76-7E43-9035-ADEE09AD9F6A}">
-    <text>I think we can improve the description here.</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z983"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -609,13 +587,13 @@
         <v>21</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -647,13 +625,13 @@
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>29</v>
@@ -663,14 +641,14 @@
       <c r="H3" s="3"/>
       <c r="I3" s="2"/>
       <c r="J3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="15">
         <v>36259</v>
       </c>
       <c r="M3" s="15">
-        <v>44099</v>
+        <v>45128</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -688,16 +666,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -726,16 +704,16 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -767,13 +745,13 @@
         <v>23</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -782,7 +760,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>17</v>
@@ -794,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="3">
-        <v>9564</v>
+        <v>11000</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -815,13 +793,13 @@
         <v>28</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
@@ -853,13 +831,13 @@
         <v>24</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
@@ -868,7 +846,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>17</v>
@@ -880,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="13">
-        <v>4</v>
+        <v>4.18</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -901,13 +879,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
@@ -928,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>21.67</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -946,16 +924,16 @@
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>16</v>
@@ -964,7 +942,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>17</v>

--- a/data-raw/metadata/survey_characteristics_metadata.xlsx
+++ b/data-raw/metadata/survey_characteristics_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/edi-feather-snorkel/data-raw/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/VA/edi-feather-snorkel/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AD20EC-7C20-8C46-9298-A6CA9636E480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9F1E52-96ED-724F-8622-FBDD1EF9DBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29420" yWindow="500" windowWidth="43260" windowHeight="24980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -157,9 +157,6 @@
     <t>parr marks</t>
   </si>
   <si>
-    <t xml:space="preserve">Describes if survey was conducted for the entire section or for a specific unit. Levels = c("comp", "unit") where 'comp' refers to the comprehensive snorkel surveys version section or unit based surveys. </t>
-  </si>
-  <si>
     <t>Turbidity measured at survey location measured in NTU through 2013. Values in the turbidity field after 2013 are measures of visibility using "fish on a stick" method. Values of 0 after 2013 in the turbidity field indicate good visibility</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t xml:space="preserve">Describes whether survey was conducted in standard protocol locations or if due to environmental conditions was conducted in another location. Levels = c("permanent", "random", NA). All years prior to 2015 are marked as NA. </t>
+  </si>
+  <si>
+    <t>Levels = c("comp", "unit") where 'comp' refers to the comprehensive snorkel surveys version section or ‘unit’ refers to section-based surveys. Comprehensive snorkel surveys cover a large extent while unit snorkel surveys are made up of 20 smaller sampling sections.</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -668,8 +668,8 @@
       <c r="A4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>43</v>
+      <c r="B4" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -707,7 +707,7 @@
         <v>39</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -831,7 +831,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -879,7 +879,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
